--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
-  <si>
-    <t># Requis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -38,116 +35,206 @@
     <t>Classe</t>
   </si>
   <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Non négociable</t>
+  </si>
+  <si>
+    <t>Peu négociable</t>
+  </si>
+  <si>
+    <t>Négociable</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>±1</t>
+  </si>
+  <si>
+    <t># Requis de conception</t>
+  </si>
+  <si>
+    <t>Posséder une interface de contrôle facile d'utilisation pour l'usager</t>
+  </si>
+  <si>
+    <t>Utiliser les blocs logiciels obligatoires dans le DSP</t>
+  </si>
+  <si>
+    <t>R1.1</t>
+  </si>
+  <si>
+    <t># Fonction</t>
+  </si>
+  <si>
+    <t>Description de la fonction</t>
+  </si>
+  <si>
+    <t>Description du requis</t>
+  </si>
+  <si>
+    <t>Détecter quand un objet est touché</t>
+  </si>
+  <si>
+    <t>Générer des contrôles utiles pour l'application choisie</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Fonctionner de façon fiable et répétable</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1.2</t>
+  </si>
+  <si>
+    <t>Détecter plusieurs touches différentes sur un objet</t>
+  </si>
+  <si>
+    <t>Posséder une routine d'apprentissage</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rencontre le requis</t>
+  </si>
+  <si>
+    <t>R2.1</t>
+  </si>
+  <si>
+    <t>Détecter un toucher rapidement</t>
+  </si>
+  <si>
     <t>250ms</t>
   </si>
   <si>
     <t>±100ms</t>
   </si>
   <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Non négociable</t>
-  </si>
-  <si>
-    <t>Peu négociable</t>
-  </si>
-  <si>
-    <t>Négociable</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Peut détecter plusieurs touches différentes sur un objet</t>
-  </si>
-  <si>
-    <t>±1</t>
-  </si>
-  <si>
-    <t>Robustesse</t>
-  </si>
-  <si>
-    <t>Grand pourcentage de détections réussies (calibration à plusieurs personnes)</t>
+    <t>R3.1</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Générer au moins un contrôle (sortie) valide pour chaque touche, possibilité de plus en faisant des combinaisons</t>
+  </si>
+  <si>
+    <t>R3.2</t>
+  </si>
+  <si>
+    <t>Donner à l'utilisateur la possibilité d'associer les touchers aux contrôles</t>
+  </si>
+  <si>
+    <t>R4.1</t>
+  </si>
+  <si>
+    <t>R3.3</t>
+  </si>
+  <si>
+    <t>Donner le choix à l'utilisateur de choisir le type de contrôle généré (GPIO, clavier, MIDI, etc.)</t>
+  </si>
+  <si>
+    <t>R4.2</t>
+  </si>
+  <si>
+    <t>R4.3</t>
+  </si>
+  <si>
+    <t>Utiliser au moins une FFT</t>
+  </si>
+  <si>
+    <t>Utiliser au moins une corrélation</t>
+  </si>
+  <si>
+    <t>Utiliser au moins un filtre numérique</t>
+  </si>
+  <si>
+    <t>R5.1</t>
+  </si>
+  <si>
+    <t>R5.2</t>
+  </si>
+  <si>
+    <t>R5.3</t>
+  </si>
+  <si>
+    <t>R5.4</t>
+  </si>
+  <si>
+    <t>Environnement</t>
   </si>
   <si>
     <t>±10%</t>
   </si>
   <si>
-    <t>Faible pourcentage de fausses détections</t>
-  </si>
-  <si>
     <t>±5%</t>
   </si>
   <si>
-    <t>P.1</t>
-  </si>
-  <si>
-    <t>R.1</t>
-  </si>
-  <si>
-    <t>R.2</t>
-  </si>
-  <si>
-    <t>R.3</t>
-  </si>
-  <si>
-    <t>R.4</t>
-  </si>
-  <si>
-    <t>Fonctionne sur plusieurs surfaces (tables, bureaux)</t>
-  </si>
-  <si>
-    <t>Immunité au bruit ambiant</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>P.2</t>
-  </si>
-  <si>
-    <t>Détection rapide des touches</t>
-  </si>
-  <si>
-    <t>Fonction</t>
-  </si>
-  <si>
-    <t>F.1</t>
-  </si>
-  <si>
-    <t>F.2</t>
-  </si>
-  <si>
-    <t>Génère des commandes en sortie pour chaque touche</t>
-  </si>
-  <si>
-    <t>1 cmd/touche</t>
-  </si>
-  <si>
-    <t>Possède une interface usager sur LCD  (télécommande gérée par le PIC)</t>
+    <t>R6.1</t>
+  </si>
+  <si>
+    <t>R6.2</t>
+  </si>
+  <si>
+    <t>Usabilité</t>
+  </si>
+  <si>
+    <t>Avoir un faible pourcentage de fausses détections</t>
+  </si>
+  <si>
+    <t>Fonctionner sur plusieurs surfaces (tables, bureaux)</t>
+  </si>
+  <si>
+    <t>Avoir une bonne immunité au bruit ambiant</t>
+  </si>
+  <si>
+    <t>Avoir un grand pourcentage de détections réussies (calibration à plusieurs personnes)</t>
+  </si>
+  <si>
+    <t>Posséder une télécommande avec clavier</t>
+  </si>
+  <si>
+    <t>Posséder une interface usager sur écran LCD</t>
+  </si>
+  <si>
+    <t>Fonctionner en temps réel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +248,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -178,39 +310,498 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -224,25 +815,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="# Requis"/>
-    <tableColumn id="6" name="TYPE"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J1:K4" totalsRowShown="0">
+  <autoFilter ref="J1:K4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="4" name="Specification" dataDxfId="2"/>
-    <tableColumn id="5" name="Flexibilité" dataDxfId="1"/>
-    <tableColumn id="9" name="Classe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="I1:J4" totalsRowShown="0">
-  <autoFilter ref="I1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="J6:K7" totalsRowShown="0">
+  <autoFilter ref="J6:K7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Classes"/>
+    <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -546,229 +1133,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="23">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="H2" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G15" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="H16" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>Description</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Fonctionner en temps réel</t>
+  </si>
+  <si>
+    <t>Numéro de test associé</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +304,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -339,17 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -470,8 +468,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -487,88 +489,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -593,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -607,194 +531,182 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,8 +727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J1:K4" totalsRowShown="0">
-  <autoFilter ref="J1:K4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L4" totalsRowShown="0">
+  <autoFilter ref="K1:L4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -826,8 +738,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="J6:K7" totalsRowShown="0">
-  <autoFilter ref="J6:K7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K6:L7" totalsRowShown="0">
+  <autoFilter ref="K6:L7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -1133,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
@@ -1148,12 +1060,13 @@
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1178,408 +1091,429 @@
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="18">
         <v>3</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="20"/>
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="24"/>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="29"/>
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="32"/>
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="34"/>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10" t="s">
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58" t="s">
+      <c r="I9" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>0.9</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="33">
         <v>0.05</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10" t="s">
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
@@ -1588,8 +1522,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -1598,8 +1533,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -1608,8 +1544,9 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -1618,8 +1555,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1629,16 +1567,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\Git\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>Numéro de test associé</t>
+  </si>
+  <si>
+    <t>Cartes de travail</t>
+  </si>
+  <si>
+    <t>Le développement du produit doit être conforme au plan d'assurance qualité</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R7.1</t>
+  </si>
+  <si>
+    <t>R7.2</t>
+  </si>
+  <si>
+    <t>R7.3</t>
+  </si>
+  <si>
+    <t>R7.4</t>
+  </si>
+  <si>
+    <t>AQ</t>
   </si>
 </sst>
 </file>
@@ -311,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -334,203 +358,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -567,146 +404,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,8 +450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L4" totalsRowShown="0">
-  <autoFilter ref="K1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:M4" totalsRowShown="0">
+  <autoFilter ref="L1:M4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -738,8 +461,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K6:L7" totalsRowShown="0">
-  <autoFilter ref="K6:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="L6:M7" totalsRowShown="0">
+  <autoFilter ref="L6:M7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -1045,79 +768,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
@@ -1126,438 +853,494 @@
       <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="K3" t="s">
+      <c r="G3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="K4" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="K6" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="K7" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="63">
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="40" t="s">
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>0.9</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="21" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="4">
         <v>0.05</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="8" t="s">
+      <c r="G15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1566,17 +1349,19 @@
       <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Numéro de test associé</t>
-  </si>
-  <si>
-    <t>Cartes de travail</t>
   </si>
   <si>
     <t>Le développement du produit doit être conforme au plan d'assurance qualité</t>
@@ -363,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,29 +404,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:M4" totalsRowShown="0">
-  <autoFilter ref="L1:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L4" totalsRowShown="0">
+  <autoFilter ref="K1:L4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -461,8 +455,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="L6:M7" totalsRowShown="0">
-  <autoFilter ref="L6:M7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K6:L7" totalsRowShown="0">
+  <autoFilter ref="K6:L7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -768,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,55 +778,51 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>69</v>
+      <c r="K1" t="s">
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -847,24 +837,23 @@
       <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
       <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
@@ -877,22 +866,21 @@
       <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="G3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -911,26 +899,25 @@
       <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -952,11 +939,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
@@ -976,17 +962,16 @@
         <v>9</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1006,19 +991,18 @@
         <v>8</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1040,11 +1024,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
@@ -1063,14 +1046,13 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1090,13 +1072,12 @@
         <v>7</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1118,11 +1099,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
@@ -1142,11 +1122,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1166,11 +1145,10 @@
         <v>8</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1183,20 +1161,19 @@
       <c r="F14" s="4">
         <v>0.05</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1218,11 +1195,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
@@ -1242,11 +1218,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1254,20 +1229,19 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -1278,16 +1252,15 @@
       <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -1298,16 +1271,15 @@
       <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -1318,16 +1290,15 @@
       <c r="I20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -1338,9 +1309,8 @@
       <c r="I21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1350,18 +1320,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\Git\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -252,13 +252,40 @@
   </si>
   <si>
     <t>AQ</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>Requis</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>i1.2</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>Test d'intégration</t>
+  </si>
+  <si>
+    <t>i3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +314,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,14 +360,8 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -355,12 +384,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,18 +470,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,6 +484,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L4" totalsRowShown="0">
-  <autoFilter ref="K1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:M5" totalsRowShown="0">
+  <autoFilter ref="L1:M5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -455,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K6:L7" totalsRowShown="0">
-  <autoFilter ref="K6:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="L7:M8" totalsRowShown="0">
+  <autoFilter ref="L7:M8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -762,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,179 +877,181 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="29"/>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="K3" t="s">
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="21"/>
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="K4" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -959,27 +1060,24 @@
         <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="J6" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
@@ -988,54 +1086,62 @@
         <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="23"/>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="K7" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="24"/>
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>30</v>
@@ -1046,21 +1152,24 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="I9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>30</v>
@@ -1071,46 +1180,52 @@
       <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="I10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>63</v>
+      <c r="E12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>30</v>
@@ -1122,91 +1237,97 @@
         <v>7</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="J12" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
+      <c r="E14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>57</v>
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>30</v>
@@ -1218,23 +1339,39 @@
         <v>7</v>
       </c>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="J16" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1249,13 +1386,12 @@
       <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1268,13 +1404,12 @@
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1287,13 +1422,12 @@
       <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1306,11 +1440,10 @@
       <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1319,19 +1452,34 @@
       <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
+  <mergeCells count="27">
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="2535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Fonctionner en temps réel</t>
   </si>
   <si>
-    <t>Numéro de test associé</t>
-  </si>
-  <si>
     <t>Le développement du produit doit être conforme au plan d'assurance qualité</t>
   </si>
   <si>
@@ -252,18 +249,6 @@
   </si>
   <si>
     <t>AQ</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>Requis</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
   </si>
   <si>
     <t>i1.2</t>
@@ -426,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,50 +464,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="L1:M5" totalsRowShown="0">
-  <autoFilter ref="L1:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:L5" totalsRowShown="0">
+  <autoFilter ref="K1:L5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Classes"/>
     <tableColumn id="2" name="Description"/>
@@ -554,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="L7:M8" totalsRowShown="0">
-  <autoFilter ref="L7:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="K7:L8" totalsRowShown="0">
+  <autoFilter ref="K7:L8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Légende"/>
     <tableColumn id="2" name="Description"/>
@@ -861,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,70 +852,63 @@
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="29"/>
+      <c r="I1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
       <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -960,20 +929,19 @@
       <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="20" t="s">
-        <v>82</v>
+      <c r="I3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
@@ -992,16 +960,15 @@
       <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1026,22 +993,21 @@
       <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>84</v>
+      <c r="I5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
       </c>
       <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1062,14 +1028,13 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="I6" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1088,18 +1053,17 @@
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1118,20 +1082,19 @@
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
       <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1152,16 +1115,13 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="I9" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1180,14 +1140,11 @@
       <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1206,16 +1163,13 @@
       <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1236,14 +1190,13 @@
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="I12" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1262,12 +1215,11 @@
       <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1286,12 +1238,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1310,14 +1261,13 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1338,14 +1288,13 @@
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="I16" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1364,21 +1313,20 @@
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -1386,17 +1334,16 @@
       <c r="H18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -1404,17 +1351,16 @@
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -1422,17 +1368,16 @@
       <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -1440,10 +1385,9 @@
       <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1453,8 +1397,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1463,23 +1419,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Gestion/cahier_charges_fonctionnel.xlsx
+++ b/Gestion/cahier_charges_fonctionnel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\Universite\S5\PROJET\Git\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -228,27 +228,6 @@
   </si>
   <si>
     <t>Fonctionner en temps réel</t>
-  </si>
-  <si>
-    <t>Le développement du produit doit être conforme au plan d'assurance qualité</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R7.1</t>
-  </si>
-  <si>
-    <t>R7.2</t>
-  </si>
-  <si>
-    <t>R7.3</t>
-  </si>
-  <si>
-    <t>R7.4</t>
-  </si>
-  <si>
-    <t>AQ</t>
   </si>
   <si>
     <t>i1.2</t>
@@ -464,41 +443,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -837,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,32 +838,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>78</v>
+      <c r="I1" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -894,21 +873,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -929,8 +908,8 @@
       <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>77</v>
+      <c r="I3" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
@@ -940,8 +919,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
@@ -960,7 +939,7 @@
       <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="28"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
@@ -994,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -1004,10 +983,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1028,13 +1007,13 @@
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>76</v>
+      <c r="I6" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1032,7 @@
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="25"/>
       <c r="K7" t="s">
         <v>31</v>
       </c>
@@ -1062,8 +1041,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1082,7 +1061,7 @@
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="26"/>
       <c r="K8" t="s">
         <v>30</v>
       </c>
@@ -1091,10 +1070,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1115,13 +1094,13 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>75</v>
+      <c r="I9" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1140,11 +1119,11 @@
       <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1163,13 +1142,13 @@
       <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1190,13 +1169,13 @@
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>77</v>
+      <c r="I12" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
@@ -1215,11 +1194,11 @@
       <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1238,11 +1217,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
@@ -1261,13 +1240,13 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1288,13 +1267,13 @@
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>76</v>
+      <c r="I16" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1313,104 +1292,19 @@
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
+  <mergeCells count="24">
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1423,7 +1317,17 @@
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
